--- a/version2 code/python results v2.xlsx
+++ b/version2 code/python results v2.xlsx
@@ -379,7 +379,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.8236877918243408</v>
+        <v>3.258695125579834</v>
       </c>
     </row>
   </sheetData>
